--- a/Apocolypse Food Prep - Visualizations Tutorial.xlsx
+++ b/Apocolypse Food Prep - Visualizations Tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Power BI Tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Ayushi\Practice\Power-BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{202E421F-8DDC-4DBD-B073-36C35363DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE1B75-77B6-4D28-9581-17709D6B135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Apocolypse Store" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
   <si>
     <t>Price</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -232,10 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -559,13 +561,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -579,7 +581,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
@@ -593,7 +595,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
@@ -607,7 +609,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
@@ -621,7 +623,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
@@ -635,7 +637,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
@@ -649,7 +651,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
@@ -663,7 +665,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
@@ -677,7 +679,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
@@ -691,7 +693,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
@@ -705,7 +707,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
@@ -726,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB07A48-6B1F-4096-A29B-353411504FDA}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +742,7 @@
     <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -760,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>_xlfn.XLOOKUP(B2,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -781,7 +783,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>_xlfn.XLOOKUP(B3,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -802,7 +804,7 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>_xlfn.XLOOKUP(B4,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -823,7 +825,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>_xlfn.XLOOKUP(B5,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -844,7 +846,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>_xlfn.XLOOKUP(B6,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -865,7 +867,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>_xlfn.XLOOKUP(B7,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -885,8 +887,12 @@
       <c r="F7" s="1">
         <v>44567</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f>SUM(E2:E75)</f>
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>_xlfn.XLOOKUP(B8,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -906,8 +912,11 @@
       <c r="F8" s="1">
         <v>44568</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>_xlfn.XLOOKUP(B9,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -928,7 +937,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>_xlfn.XLOOKUP(B10,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -949,7 +958,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>_xlfn.XLOOKUP(B11,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -970,7 +979,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>_xlfn.XLOOKUP(B12,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -991,7 +1000,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>_xlfn.XLOOKUP(B13,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1012,7 +1021,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>_xlfn.XLOOKUP(B14,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1033,7 +1042,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>_xlfn.XLOOKUP(B15,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1054,7 +1063,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>_xlfn.XLOOKUP(B16,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2324,7 +2333,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2446,9 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB05C64-D7EE-40EF-AAEB-45B7D68255AD}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Apocolypse Food Prep - Visualizations Tutorial.xlsx
+++ b/Apocolypse Food Prep - Visualizations Tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Ayushi\Practice\Power-BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE1B75-77B6-4D28-9581-17709D6B135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29216A23-2F1F-4390-AA3B-92639AE9F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +886,6 @@
       </c>
       <c r="F7" s="1">
         <v>44567</v>
-      </c>
-      <c r="I7">
-        <f>SUM(E2:E75)</f>
-        <v>3001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
